--- a/biology/Botanique/Commelinaceae/Commelinaceae.xlsx
+++ b/biology/Botanique/Commelinaceae/Commelinaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Commelinaceae (Commélinacées) est constituée de plantes monocotylédones ; elle comprend dans les 500 espèces réparties en une quarantaine de genres.
 Ce sont des plantes herbacées, annuelles ou pérennes, largement répandues, des zones subtropicales. Elles forment souvent une strate herbacée épaisse en sous-bois. Certaines espèces sont utilisées comme plantes ornementales. C'est le cas des « misères » (genre Tradescantia).
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Commelina donné en l'honneur du botaniste hollandais  Jan Commelijn (Johannes Commelinus, 1629–1692), fondateur du Jardin botanique (hortus botanicus) d'Amsterdam, et de son neveu Caspar Commelijn (Casparus Commelinus, 1667–1734), qui suivit les traces de son oncle. Linné nomma le genre pour ces deux botanistes par analogie aux deux pétales supérieurs (les plus développés) de certaines espèces de Commelina, laissant le troisième pétale (situé en position inférieure et de dimension réduite) en mémoire symbolique de Casparus Commelinus senior, frère de Jan, qui, lui, n'était pas botaniste mais libraire et éditeur de journaux à succès[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Commelina donné en l'honneur du botaniste hollandais  Jan Commelijn (Johannes Commelinus, 1629–1692), fondateur du Jardin botanique (hortus botanicus) d'Amsterdam, et de son neveu Caspar Commelijn (Casparus Commelinus, 1667–1734), qui suivit les traces de son oncle. Linné nomma le genre pour ces deux botanistes par analogie aux deux pétales supérieurs (les plus développés) de certaines espèces de Commelina, laissant le troisième pétale (situé en position inférieure et de dimension réduite) en mémoire symbolique de Casparus Commelinus senior, frère de Jan, qui, lui, n'était pas botaniste mais libraire et éditeur de journaux à succès.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (19 avr. 2010)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (19 avr. 2010) :
 Amischotolype
 Aneilema
 Anthericopsis
@@ -576,7 +592,7 @@
 Tradescantia
 Tripogandra
 Weldenia
-Selon Angiosperm Phylogeny Website                        (17 mai 2010)[3] :
+Selon Angiosperm Phylogeny Website                        (17 mai 2010) :
 Aetheolirion Forman
 Amischotolype Hassk.
 Aneilema R.Br.
@@ -615,7 +631,7 @@
 Triceratella Brenan
 Tripogandra Raf.
 Weldenia Schult.f.
-Selon DELTA Angio           (19 avr. 2010)[4] :
+Selon DELTA Angio           (19 avr. 2010) :
 Aetheolirion
 Amischotolpe
 Aneilema
@@ -654,7 +670,7 @@
 Tricarpelema
 Tripogandra
 Weldenia
-Selon ITIS      (20 avr. 2010)[5] :
+Selon ITIS      (20 avr. 2010) :
 Aneilema  R. Br.
 Aploleia  Rafinesque, 1837
 Callisia  Loefl.
